--- a/不开采样效果.xlsx
+++ b/不开采样效果.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>milc</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -145,6 +145,10 @@
   </si>
   <si>
     <t>povray</t>
+  </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -510,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -522,17 +526,18 @@
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="17.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -543,19 +548,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,30 +577,34 @@
         <v>19959422</v>
       </c>
       <c r="E2" s="1">
+        <f>C2/D2</f>
+        <v>94.533532183446994</v>
+      </c>
+      <c r="F2" s="1">
         <v>3420</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>19</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>25</v>
       </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <f>(F2+G2+H2)/E2</f>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <f>(G2+H2+I2)/F2</f>
         <v>1.2865497076023392E-2</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>387</v>
       </c>
-      <c r="K2" s="3">
-        <f>E2/J2</f>
+      <c r="L2" s="3">
+        <f>F2/K2</f>
         <v>8.8372093023255811</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -606,30 +618,34 @@
         <v>970739</v>
       </c>
       <c r="E3" s="1">
+        <f t="shared" ref="E3:E15" si="0">C3/D3</f>
+        <v>1655.1937657805033</v>
+      </c>
+      <c r="F3" s="1">
         <v>3030</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>16</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>23</v>
       </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <f t="shared" ref="I3:I27" si="0">(F3+G3+H3)/E3</f>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J27" si="1">(G3+H3+I3)/F3</f>
         <v>1.2871287128712871E-2</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>313.33333333333331</v>
       </c>
-      <c r="K3" s="3">
-        <f t="shared" ref="K3:K7" si="1">E3/J3</f>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L7" si="2">F3/K3</f>
         <v>9.6702127659574479</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -643,30 +659,34 @@
         <v>1426631</v>
       </c>
       <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>77.239072331948492</v>
+      </c>
+      <c r="F4" s="1">
         <v>852</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="0"/>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="1"/>
         <v>3.5211267605633804E-3</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>602.33333333333337</v>
       </c>
-      <c r="K4" s="3">
-        <f t="shared" si="1"/>
+      <c r="L4" s="3">
+        <f t="shared" si="2"/>
         <v>1.4144991698948532</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -680,30 +700,34 @@
         <v>459321</v>
       </c>
       <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>1249.2104846066259</v>
+      </c>
+      <c r="F5" s="1">
         <v>1130</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>5</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>7</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="0"/>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
         <v>1.0619469026548672E-2</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>198.66666666666666</v>
       </c>
-      <c r="K5" s="3">
-        <f t="shared" si="1"/>
+      <c r="L5" s="3">
+        <f t="shared" si="2"/>
         <v>5.6879194630872485</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -717,30 +741,34 @@
         <v>555882</v>
       </c>
       <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>3114.4338330796822</v>
+      </c>
+      <c r="F6" s="1">
         <v>3260</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>17</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>22</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="0"/>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
         <v>1.196319018404908E-2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>393.66666666666669</v>
       </c>
-      <c r="K6" s="3">
-        <f t="shared" si="1"/>
+      <c r="L6" s="3">
+        <f t="shared" si="2"/>
         <v>8.2811176968670619</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -754,30 +782,34 @@
         <v>375336</v>
       </c>
       <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>3245.0619125263765</v>
+      </c>
+      <c r="F7" s="1">
         <v>2250</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>12</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>18</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="0"/>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>194</v>
       </c>
-      <c r="K7" s="3">
-        <f t="shared" si="1"/>
+      <c r="L7" s="3">
+        <f t="shared" si="2"/>
         <v>11.597938144329897</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -791,23 +823,27 @@
         <v>536086</v>
       </c>
       <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>4981.6139705196556</v>
+      </c>
+      <c r="F8" s="1">
         <v>4800</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>27</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>32</v>
       </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="0"/>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="1"/>
         <v>1.2291666666666666E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -821,23 +857,27 @@
         <v>1901917</v>
       </c>
       <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5159552178144473</v>
+      </c>
+      <c r="F9" s="1">
         <v>417</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
       <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
         <v>3</v>
       </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="0"/>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
         <v>7.1942446043165471E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -851,23 +891,27 @@
         <v>3045885</v>
       </c>
       <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>176.26177679065361</v>
+      </c>
+      <c r="F10" s="1">
         <v>1450</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>5</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>8</v>
       </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="0"/>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
         <v>8.9655172413793099E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -881,23 +925,27 @@
         <v>5652917</v>
       </c>
       <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>93.029629127758284</v>
+      </c>
+      <c r="F11" s="1">
         <v>1190</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>5</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>6</v>
       </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="0"/>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="1"/>
         <v>9.2436974789915968E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -911,23 +959,27 @@
         <v>405832</v>
       </c>
       <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>534.28220298054373</v>
+      </c>
+      <c r="F12" s="1">
         <v>864</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>13</v>
       </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="0"/>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="1"/>
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -941,23 +993,27 @@
         <v>291465</v>
       </c>
       <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>1044.7486593587566</v>
+      </c>
+      <c r="F13" s="1">
         <v>711</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>3</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>4</v>
       </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="0"/>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
         <v>9.8452883263009851E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -971,23 +1027,27 @@
         <v>5415953</v>
       </c>
       <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9648922359555188</v>
+      </c>
+      <c r="F14" s="1">
         <v>644</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1001,23 +1061,27 @@
         <v>106588</v>
       </c>
       <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>13.122668593087402</v>
+      </c>
+      <c r="F15" s="1">
         <v>333</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
@@ -1030,24 +1094,24 @@
       <c r="D16" s="1">
         <v>190529</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>1860</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>8</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>10</v>
       </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="0"/>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="1"/>
         <v>9.6774193548387101E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1060,24 +1124,24 @@
       <c r="D17" s="1">
         <v>553318</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>1460</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>7</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>10</v>
       </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="0"/>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="1"/>
         <v>1.1643835616438357E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
@@ -1090,24 +1154,24 @@
       <c r="D18" s="1">
         <v>208749</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>406</v>
       </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
       </c>
-      <c r="I18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
@@ -1120,24 +1184,24 @@
       <c r="D19" s="1">
         <v>142306</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>546</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
       <c r="G19" s="1">
         <v>0</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
       </c>
-      <c r="I19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
@@ -1150,24 +1214,24 @@
       <c r="D20" s="1">
         <v>224291</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>5390</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>31</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>37</v>
       </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" si="0"/>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="1"/>
         <v>1.2615955473098329E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
@@ -1180,24 +1244,24 @@
       <c r="D21" s="1">
         <v>123356</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>542</v>
       </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="I21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -1210,24 +1274,24 @@
       <c r="D22" s="1">
         <v>123061</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>613</v>
       </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="I22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
@@ -1240,24 +1304,24 @@
       <c r="D23" s="1">
         <v>109347</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>615</v>
       </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
       </c>
-      <c r="I23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
@@ -1270,24 +1334,24 @@
       <c r="D24" s="1">
         <v>145953</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>1120</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>4</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>8</v>
       </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" si="0"/>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="1"/>
         <v>1.0714285714285714E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>30</v>
       </c>
@@ -1300,24 +1364,24 @@
       <c r="D25" s="1">
         <v>103943</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>312</v>
       </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
       <c r="G25" s="1">
         <v>0</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
       </c>
-      <c r="I25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
@@ -1330,24 +1394,24 @@
       <c r="D26" s="1">
         <v>188902</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>409</v>
       </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
       <c r="G26" s="1">
         <v>0</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
       </c>
-      <c r="I26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>32</v>
       </c>
@@ -1360,20 +1424,20 @@
       <c r="D27" s="1">
         <v>88893</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>125</v>
       </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
       </c>
-      <c r="I27" s="2">
-        <f t="shared" si="0"/>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/不开采样效果.xlsx
+++ b/不开采样效果.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/houfang/Documents/research/aet_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -154,7 +162,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
@@ -517,27 +525,27 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -563,7 +571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +612,7 @@
         <v>8.8372093023255811</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -645,7 +653,7 @@
         <v>9.6702127659574479</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -686,7 +694,7 @@
         <v>1.4144991698948532</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -727,7 +735,7 @@
         <v>5.6879194630872485</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -768,7 +776,7 @@
         <v>8.2811176968670619</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -809,7 +817,7 @@
         <v>11.597938144329897</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -842,8 +850,12 @@
         <f t="shared" si="1"/>
         <v>1.2291666666666666E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L8" s="2">
+        <f>AVERAGE(L2:L7)</f>
+        <v>7.5814827570770147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -877,7 +889,7 @@
         <v>7.1942446043165471E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -911,7 +923,7 @@
         <v>8.9655172413793099E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -945,7 +957,7 @@
         <v>9.2436974789915968E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -979,7 +991,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1013,7 +1025,7 @@
         <v>9.8452883263009851E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1047,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1081,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
@@ -1111,7 +1123,7 @@
         <v>9.6774193548387101E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1141,7 +1153,7 @@
         <v>1.1643835616438357E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
@@ -1171,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
@@ -1201,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
@@ -1231,7 +1243,7 @@
         <v>1.2615955473098329E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
@@ -1261,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -1291,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
@@ -1321,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
@@ -1351,7 +1363,7 @@
         <v>1.0714285714285714E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>30</v>
       </c>
@@ -1381,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
@@ -1411,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>32</v>
       </c>
